--- a/추가피처데이터/투자자별매매동향(수급)/271940.xlsx
+++ b/추가피처데이터/투자자별매매동향(수급)/271940.xlsx
@@ -1595,43 +1595,43 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.3515625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="20" max="20" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="21" max="21" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="22" max="22" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="23" max="23" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="32" max="32" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="33" max="33" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="34" max="34" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -1863,58 +1863,58 @@
         <v>18</v>
       </c>
       <c r="B6" s="5">
-        <v>347</v>
+        <v>10645</v>
       </c>
       <c r="C6" s="7">
-        <v>242</v>
+        <v>7377</v>
       </c>
       <c r="D6" s="9">
-        <v>105</v>
+        <v>3268</v>
       </c>
       <c r="E6" s="11">
-        <v>799</v>
+        <v>24363</v>
       </c>
       <c r="F6" s="13">
-        <v>915</v>
+        <v>28005</v>
       </c>
       <c r="G6" s="15">
-        <v>-116</v>
+        <v>-3643</v>
       </c>
       <c r="H6" s="17">
-        <v>106</v>
+        <v>3247</v>
       </c>
       <c r="I6" s="19">
-        <v>92</v>
+        <v>2793</v>
       </c>
       <c r="J6" s="21">
-        <v>14</v>
+        <v>454</v>
       </c>
       <c r="K6" s="23">
-        <v>54</v>
+        <v>1650</v>
       </c>
       <c r="L6" s="25">
-        <v>59</v>
+        <v>1786</v>
       </c>
       <c r="M6" s="27">
-        <v>-5</v>
+        <v>-136</v>
       </c>
       <c r="N6" s="29">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="O6" s="31">
-        <v>6</v>
+        <v>181</v>
       </c>
       <c r="P6" s="33">
-        <v>-5</v>
+        <v>-149</v>
       </c>
       <c r="Q6" s="35">
-        <v>17</v>
+        <v>537</v>
       </c>
       <c r="R6" s="37">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="S6" s="39">
-        <v>14</v>
+        <v>437</v>
       </c>
       <c r="T6" s="41">
         <v>0</v>
@@ -1935,22 +1935,22 @@
         <v>0</v>
       </c>
       <c r="Z6" s="53">
-        <v>13</v>
+        <v>383</v>
       </c>
       <c r="AA6" s="55">
-        <v>10</v>
+        <v>307</v>
       </c>
       <c r="AB6" s="57">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="AC6" s="59">
-        <v>21</v>
+        <v>644</v>
       </c>
       <c r="AD6" s="61">
-        <v>14</v>
+        <v>417</v>
       </c>
       <c r="AE6" s="63">
-        <v>7</v>
+        <v>226</v>
       </c>
       <c r="AF6" s="65">
         <v>0</v>
@@ -1962,16 +1962,16 @@
         <v>0</v>
       </c>
       <c r="AI6" s="71">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="AJ6" s="73">
-        <v>6</v>
+        <v>191</v>
       </c>
       <c r="AK6" s="75">
-        <v>-3</v>
+        <v>-79</v>
       </c>
       <c r="AL6" s="77">
-        <v>1256</v>
+        <v>38366</v>
       </c>
     </row>
     <row r="7">
@@ -1979,58 +1979,58 @@
         <v>19</v>
       </c>
       <c r="B7" s="5">
-        <v>256</v>
+        <v>7920</v>
       </c>
       <c r="C7" s="7">
-        <v>291</v>
+        <v>8934</v>
       </c>
       <c r="D7" s="9">
-        <v>-34</v>
+        <v>-1014</v>
       </c>
       <c r="E7" s="11">
-        <v>1181</v>
+        <v>36390</v>
       </c>
       <c r="F7" s="13">
-        <v>1093</v>
+        <v>33721</v>
       </c>
       <c r="G7" s="15">
-        <v>88</v>
+        <v>2670</v>
       </c>
       <c r="H7" s="17">
-        <v>114</v>
+        <v>3504</v>
       </c>
       <c r="I7" s="19">
-        <v>174</v>
+        <v>5349</v>
       </c>
       <c r="J7" s="21">
-        <v>-60</v>
+        <v>-1846</v>
       </c>
       <c r="K7" s="23">
-        <v>74</v>
+        <v>2284</v>
       </c>
       <c r="L7" s="25">
-        <v>72</v>
+        <v>2201</v>
       </c>
       <c r="M7" s="27">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="N7" s="29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O7" s="31">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="P7" s="33">
-        <v>-1</v>
+        <v>-18</v>
       </c>
       <c r="Q7" s="35">
-        <v>5</v>
+        <v>157</v>
       </c>
       <c r="R7" s="37">
-        <v>33</v>
+        <v>991</v>
       </c>
       <c r="S7" s="39">
-        <v>-27</v>
+        <v>-834</v>
       </c>
       <c r="T7" s="41">
         <v>0</v>
@@ -2051,22 +2051,22 @@
         <v>0</v>
       </c>
       <c r="Z7" s="53">
-        <v>17</v>
+        <v>529</v>
       </c>
       <c r="AA7" s="55">
-        <v>49</v>
+        <v>1504</v>
       </c>
       <c r="AB7" s="57">
-        <v>-31</v>
+        <v>-975</v>
       </c>
       <c r="AC7" s="59">
-        <v>17</v>
+        <v>528</v>
       </c>
       <c r="AD7" s="61">
-        <v>20</v>
+        <v>629</v>
       </c>
       <c r="AE7" s="63">
-        <v>-3</v>
+        <v>-101</v>
       </c>
       <c r="AF7" s="65">
         <v>0</v>
@@ -2078,16 +2078,16 @@
         <v>0</v>
       </c>
       <c r="AI7" s="71">
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="AJ7" s="73">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="AK7" s="75">
-        <v>6</v>
+        <v>190</v>
       </c>
       <c r="AL7" s="77">
-        <v>1559</v>
+        <v>48034</v>
       </c>
     </row>
     <row r="8">
@@ -2095,58 +2095,58 @@
         <v>20</v>
       </c>
       <c r="B8" s="5">
-        <v>238</v>
+        <v>7231</v>
       </c>
       <c r="C8" s="7">
-        <v>261</v>
+        <v>7907</v>
       </c>
       <c r="D8" s="9">
-        <v>-23</v>
+        <v>-676</v>
       </c>
       <c r="E8" s="11">
-        <v>1007</v>
+        <v>30424</v>
       </c>
       <c r="F8" s="13">
-        <v>958</v>
+        <v>28989</v>
       </c>
       <c r="G8" s="15">
-        <v>49</v>
+        <v>1435</v>
       </c>
       <c r="H8" s="17">
-        <v>104</v>
+        <v>3161</v>
       </c>
       <c r="I8" s="19">
-        <v>128</v>
+        <v>3846</v>
       </c>
       <c r="J8" s="21">
-        <v>-24</v>
+        <v>-685</v>
       </c>
       <c r="K8" s="23">
-        <v>64</v>
+        <v>1948</v>
       </c>
       <c r="L8" s="25">
-        <v>70</v>
+        <v>2120</v>
       </c>
       <c r="M8" s="27">
-        <v>-6</v>
+        <v>-172</v>
       </c>
       <c r="N8" s="29">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="O8" s="31">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="P8" s="33">
-        <v>-1</v>
+        <v>-37</v>
       </c>
       <c r="Q8" s="35">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="R8" s="37">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="S8" s="39">
-        <v>-4</v>
+        <v>-100</v>
       </c>
       <c r="T8" s="41">
         <v>0</v>
@@ -2167,22 +2167,22 @@
         <v>0</v>
       </c>
       <c r="Z8" s="53">
-        <v>14</v>
+        <v>415</v>
       </c>
       <c r="AA8" s="55">
-        <v>35</v>
+        <v>1031</v>
       </c>
       <c r="AB8" s="57">
-        <v>-21</v>
+        <v>-616</v>
       </c>
       <c r="AC8" s="59">
-        <v>21</v>
+        <v>632</v>
       </c>
       <c r="AD8" s="61">
-        <v>13</v>
+        <v>391</v>
       </c>
       <c r="AE8" s="63">
-        <v>8</v>
+        <v>241</v>
       </c>
       <c r="AF8" s="65">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>0</v>
       </c>
       <c r="AI8" s="71">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="AJ8" s="73">
-        <v>7</v>
+        <v>200</v>
       </c>
       <c r="AK8" s="75">
-        <v>-3</v>
+        <v>-74</v>
       </c>
       <c r="AL8" s="77">
-        <v>1353</v>
+        <v>40942</v>
       </c>
     </row>
     <row r="9">
@@ -2211,58 +2211,58 @@
         <v>21</v>
       </c>
       <c r="B9" s="5">
-        <v>340</v>
+        <v>11221</v>
       </c>
       <c r="C9" s="7">
-        <v>270</v>
+        <v>8925</v>
       </c>
       <c r="D9" s="9">
-        <v>70</v>
+        <v>2296</v>
       </c>
       <c r="E9" s="11">
-        <v>931</v>
+        <v>30640</v>
       </c>
       <c r="F9" s="13">
-        <v>851</v>
+        <v>28211</v>
       </c>
       <c r="G9" s="15">
-        <v>80</v>
+        <v>2429</v>
       </c>
       <c r="H9" s="17">
-        <v>131</v>
+        <v>4356</v>
       </c>
       <c r="I9" s="19">
-        <v>285</v>
+        <v>9207</v>
       </c>
       <c r="J9" s="21">
-        <v>-154</v>
+        <v>-4851</v>
       </c>
       <c r="K9" s="23">
-        <v>60</v>
+        <v>1978</v>
       </c>
       <c r="L9" s="25">
-        <v>98</v>
+        <v>3226</v>
       </c>
       <c r="M9" s="27">
-        <v>-38</v>
+        <v>-1248</v>
       </c>
       <c r="N9" s="29">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="O9" s="31">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="P9" s="33">
-        <v>-1</v>
+        <v>-19</v>
       </c>
       <c r="Q9" s="35">
-        <v>23</v>
+        <v>766</v>
       </c>
       <c r="R9" s="37">
-        <v>143</v>
+        <v>4536</v>
       </c>
       <c r="S9" s="39">
-        <v>-120</v>
+        <v>-3770</v>
       </c>
       <c r="T9" s="41">
         <v>0</v>
@@ -2283,22 +2283,22 @@
         <v>0</v>
       </c>
       <c r="Z9" s="53">
-        <v>22</v>
+        <v>738</v>
       </c>
       <c r="AA9" s="55">
-        <v>14</v>
+        <v>454</v>
       </c>
       <c r="AB9" s="57">
-        <v>8</v>
+        <v>284</v>
       </c>
       <c r="AC9" s="59">
-        <v>26</v>
+        <v>846</v>
       </c>
       <c r="AD9" s="61">
-        <v>29</v>
+        <v>943</v>
       </c>
       <c r="AE9" s="63">
-        <v>-3</v>
+        <v>-97</v>
       </c>
       <c r="AF9" s="65">
         <v>0</v>
@@ -2310,16 +2310,16 @@
         <v>0</v>
       </c>
       <c r="AI9" s="71">
-        <v>7</v>
+        <v>214</v>
       </c>
       <c r="AJ9" s="73">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="AK9" s="75">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="AL9" s="77">
-        <v>1409</v>
+        <v>46431</v>
       </c>
     </row>
     <row r="10">
@@ -2327,58 +2327,58 @@
         <v>22</v>
       </c>
       <c r="B10" s="5">
-        <v>252</v>
+        <v>7922</v>
       </c>
       <c r="C10" s="7">
-        <v>154</v>
+        <v>4798</v>
       </c>
       <c r="D10" s="9">
-        <v>98</v>
+        <v>3123</v>
       </c>
       <c r="E10" s="11">
-        <v>543</v>
+        <v>16997</v>
       </c>
       <c r="F10" s="13">
-        <v>563</v>
+        <v>17736</v>
       </c>
       <c r="G10" s="15">
-        <v>-20</v>
+        <v>-738</v>
       </c>
       <c r="H10" s="17">
-        <v>127</v>
+        <v>3975</v>
       </c>
       <c r="I10" s="19">
-        <v>208</v>
+        <v>6445</v>
       </c>
       <c r="J10" s="21">
-        <v>-81</v>
+        <v>-2470</v>
       </c>
       <c r="K10" s="23">
-        <v>57</v>
+        <v>1777</v>
       </c>
       <c r="L10" s="25">
-        <v>68</v>
+        <v>2109</v>
       </c>
       <c r="M10" s="27">
-        <v>-12</v>
+        <v>-332</v>
       </c>
       <c r="N10" s="29">
-        <v>6</v>
+        <v>195</v>
       </c>
       <c r="O10" s="31">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="P10" s="33">
-        <v>4</v>
+        <v>129</v>
       </c>
       <c r="Q10" s="35">
-        <v>35</v>
+        <v>1097</v>
       </c>
       <c r="R10" s="37">
-        <v>21</v>
+        <v>648</v>
       </c>
       <c r="S10" s="39">
-        <v>14</v>
+        <v>449</v>
       </c>
       <c r="T10" s="41">
         <v>0</v>
@@ -2399,22 +2399,22 @@
         <v>0</v>
       </c>
       <c r="Z10" s="53">
-        <v>15</v>
+        <v>464</v>
       </c>
       <c r="AA10" s="55">
-        <v>95</v>
+        <v>2961</v>
       </c>
       <c r="AB10" s="57">
-        <v>-80</v>
+        <v>-2496</v>
       </c>
       <c r="AC10" s="59">
-        <v>15</v>
+        <v>441</v>
       </c>
       <c r="AD10" s="61">
-        <v>21</v>
+        <v>661</v>
       </c>
       <c r="AE10" s="63">
-        <v>-7</v>
+        <v>-220</v>
       </c>
       <c r="AF10" s="65">
         <v>0</v>
@@ -2426,16 +2426,16 @@
         <v>0</v>
       </c>
       <c r="AI10" s="71">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="AJ10" s="73">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="AK10" s="75">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="AL10" s="77">
-        <v>926</v>
+        <v>29012</v>
       </c>
     </row>
     <row r="11">
@@ -2443,94 +2443,94 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <v>236</v>
+        <v>7526</v>
       </c>
       <c r="C11" s="7">
-        <v>246</v>
+        <v>7813</v>
       </c>
       <c r="D11" s="9">
-        <v>-10</v>
+        <v>-287</v>
       </c>
       <c r="E11" s="11">
-        <v>483</v>
+        <v>15477</v>
       </c>
       <c r="F11" s="13">
-        <v>453</v>
+        <v>14535</v>
       </c>
       <c r="G11" s="15">
-        <v>30</v>
+        <v>942</v>
       </c>
       <c r="H11" s="17">
-        <v>144</v>
+        <v>4575</v>
       </c>
       <c r="I11" s="19">
-        <v>165</v>
+        <v>5243</v>
       </c>
       <c r="J11" s="21">
-        <v>-21</v>
+        <v>-667</v>
       </c>
       <c r="K11" s="23">
-        <v>63</v>
+        <v>2006</v>
       </c>
       <c r="L11" s="25">
-        <v>46</v>
+        <v>1462</v>
       </c>
       <c r="M11" s="27">
-        <v>17</v>
+        <v>543</v>
       </c>
       <c r="N11" s="29">
+        <v>127</v>
+      </c>
+      <c r="O11" s="31">
+        <v>152</v>
+      </c>
+      <c r="P11" s="33">
+        <v>-25</v>
+      </c>
+      <c r="Q11" s="35">
+        <v>1040</v>
+      </c>
+      <c r="R11" s="37">
+        <v>875</v>
+      </c>
+      <c r="S11" s="39">
+        <v>164</v>
+      </c>
+      <c r="T11" s="41">
+        <v>0</v>
+      </c>
+      <c r="U11" s="43">
+        <v>0</v>
+      </c>
+      <c r="V11" s="45">
+        <v>0</v>
+      </c>
+      <c r="W11" s="47">
+        <v>1</v>
+      </c>
+      <c r="X11" s="49">
         <v>4</v>
       </c>
-      <c r="O11" s="31">
-        <v>5</v>
-      </c>
-      <c r="P11" s="33">
-        <v>-1</v>
-      </c>
-      <c r="Q11" s="35">
-        <v>32</v>
-      </c>
-      <c r="R11" s="37">
-        <v>28</v>
-      </c>
-      <c r="S11" s="39">
-        <v>4</v>
-      </c>
-      <c r="T11" s="41">
-        <v>0</v>
-      </c>
-      <c r="U11" s="43">
-        <v>0</v>
-      </c>
-      <c r="V11" s="45">
-        <v>0</v>
-      </c>
-      <c r="W11" s="47">
-        <v>0</v>
-      </c>
-      <c r="X11" s="49">
-        <v>0</v>
-      </c>
       <c r="Y11" s="51">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="Z11" s="53">
-        <v>21</v>
+        <v>668</v>
       </c>
       <c r="AA11" s="55">
-        <v>57</v>
+        <v>1830</v>
       </c>
       <c r="AB11" s="57">
-        <v>-36</v>
+        <v>-1162</v>
       </c>
       <c r="AC11" s="59">
-        <v>23</v>
+        <v>735</v>
       </c>
       <c r="AD11" s="61">
-        <v>29</v>
+        <v>920</v>
       </c>
       <c r="AE11" s="63">
-        <v>-6</v>
+        <v>-185</v>
       </c>
       <c r="AF11" s="65">
         <v>0</v>
@@ -2542,16 +2542,16 @@
         <v>0</v>
       </c>
       <c r="AI11" s="71">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="AJ11" s="73">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="AK11" s="75">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AL11" s="77">
-        <v>865</v>
+        <v>27643</v>
       </c>
     </row>
     <row r="12">
@@ -2559,115 +2559,115 @@
         <v>24</v>
       </c>
       <c r="B12" s="5">
+        <v>15582</v>
+      </c>
+      <c r="C12" s="7">
+        <v>13616</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1966</v>
+      </c>
+      <c r="E12" s="11">
+        <v>40535</v>
+      </c>
+      <c r="F12" s="13">
+        <v>42907</v>
+      </c>
+      <c r="G12" s="15">
+        <v>-2373</v>
+      </c>
+      <c r="H12" s="17">
+        <v>8592</v>
+      </c>
+      <c r="I12" s="19">
+        <v>8205</v>
+      </c>
+      <c r="J12" s="21">
+        <v>386</v>
+      </c>
+      <c r="K12" s="23">
+        <v>2226</v>
+      </c>
+      <c r="L12" s="25">
+        <v>2867</v>
+      </c>
+      <c r="M12" s="27">
+        <v>-641</v>
+      </c>
+      <c r="N12" s="29">
+        <v>157</v>
+      </c>
+      <c r="O12" s="31">
+        <v>174</v>
+      </c>
+      <c r="P12" s="33">
+        <v>-17</v>
+      </c>
+      <c r="Q12" s="35">
+        <v>1423</v>
+      </c>
+      <c r="R12" s="37">
+        <v>1195</v>
+      </c>
+      <c r="S12" s="39">
+        <v>228</v>
+      </c>
+      <c r="T12" s="41">
+        <v>0</v>
+      </c>
+      <c r="U12" s="43">
+        <v>0</v>
+      </c>
+      <c r="V12" s="45">
+        <v>0</v>
+      </c>
+      <c r="W12" s="47">
+        <v>0</v>
+      </c>
+      <c r="X12" s="49">
+        <v>25</v>
+      </c>
+      <c r="Y12" s="51">
+        <v>-25</v>
+      </c>
+      <c r="Z12" s="53">
+        <v>3307</v>
+      </c>
+      <c r="AA12" s="55">
+        <v>1376</v>
+      </c>
+      <c r="AB12" s="57">
+        <v>1931</v>
+      </c>
+      <c r="AC12" s="59">
+        <v>1478</v>
+      </c>
+      <c r="AD12" s="61">
+        <v>2567</v>
+      </c>
+      <c r="AE12" s="63">
+        <v>-1089</v>
+      </c>
+      <c r="AF12" s="65">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="69">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="71">
+        <v>476</v>
+      </c>
+      <c r="AJ12" s="73">
         <v>456</v>
       </c>
-      <c r="C12" s="7">
-        <v>397</v>
-      </c>
-      <c r="D12" s="9">
-        <v>59</v>
-      </c>
-      <c r="E12" s="11">
-        <v>1190</v>
-      </c>
-      <c r="F12" s="13">
-        <v>1256</v>
-      </c>
-      <c r="G12" s="15">
-        <v>-66</v>
-      </c>
-      <c r="H12" s="17">
-        <v>250</v>
-      </c>
-      <c r="I12" s="19">
-        <v>243</v>
-      </c>
-      <c r="J12" s="21">
-        <v>7</v>
-      </c>
-      <c r="K12" s="23">
-        <v>65</v>
-      </c>
-      <c r="L12" s="25">
-        <v>85</v>
-      </c>
-      <c r="M12" s="27">
-        <v>-20</v>
-      </c>
-      <c r="N12" s="29">
-        <v>5</v>
-      </c>
-      <c r="O12" s="31">
-        <v>5</v>
-      </c>
-      <c r="P12" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="35">
-        <v>41</v>
-      </c>
-      <c r="R12" s="37">
-        <v>36</v>
-      </c>
-      <c r="S12" s="39">
-        <v>6</v>
-      </c>
-      <c r="T12" s="41">
-        <v>0</v>
-      </c>
-      <c r="U12" s="43">
-        <v>0</v>
-      </c>
-      <c r="V12" s="45">
-        <v>0</v>
-      </c>
-      <c r="W12" s="47">
-        <v>0</v>
-      </c>
-      <c r="X12" s="49">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="51">
-        <v>-1</v>
-      </c>
-      <c r="Z12" s="53">
-        <v>96</v>
-      </c>
-      <c r="AA12" s="55">
-        <v>40</v>
-      </c>
-      <c r="AB12" s="57">
-        <v>57</v>
-      </c>
-      <c r="AC12" s="59">
-        <v>43</v>
-      </c>
-      <c r="AD12" s="61">
-        <v>77</v>
-      </c>
-      <c r="AE12" s="63">
-        <v>-34</v>
-      </c>
-      <c r="AF12" s="65">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="67">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="69">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="71">
-        <v>14</v>
-      </c>
-      <c r="AJ12" s="73">
-        <v>13</v>
-      </c>
       <c r="AK12" s="75">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL12" s="77">
-        <v>1909</v>
+        <v>65185</v>
       </c>
     </row>
     <row r="13">
@@ -2675,94 +2675,94 @@
         <v>25</v>
       </c>
       <c r="B13" s="5">
-        <v>235</v>
+        <v>7034</v>
       </c>
       <c r="C13" s="7">
-        <v>256</v>
+        <v>7673</v>
       </c>
       <c r="D13" s="9">
-        <v>-21</v>
+        <v>-640</v>
       </c>
       <c r="E13" s="11">
-        <v>643</v>
+        <v>19198</v>
       </c>
       <c r="F13" s="13">
-        <v>663</v>
+        <v>19822</v>
       </c>
       <c r="G13" s="15">
-        <v>-20</v>
+        <v>-624</v>
       </c>
       <c r="H13" s="17">
-        <v>178</v>
+        <v>5364</v>
       </c>
       <c r="I13" s="19">
-        <v>138</v>
+        <v>4111</v>
       </c>
       <c r="J13" s="21">
-        <v>41</v>
+        <v>1253</v>
       </c>
       <c r="K13" s="23">
-        <v>65</v>
+        <v>1950</v>
       </c>
       <c r="L13" s="25">
-        <v>50</v>
+        <v>1477</v>
       </c>
       <c r="M13" s="27">
-        <v>15</v>
+        <v>473</v>
       </c>
       <c r="N13" s="29">
+        <v>88</v>
+      </c>
+      <c r="O13" s="31">
+        <v>149</v>
+      </c>
+      <c r="P13" s="33">
+        <v>-60</v>
+      </c>
+      <c r="Q13" s="35">
+        <v>895</v>
+      </c>
+      <c r="R13" s="37">
+        <v>721</v>
+      </c>
+      <c r="S13" s="39">
+        <v>173</v>
+      </c>
+      <c r="T13" s="41">
+        <v>0</v>
+      </c>
+      <c r="U13" s="43">
+        <v>0</v>
+      </c>
+      <c r="V13" s="45">
+        <v>0</v>
+      </c>
+      <c r="W13" s="47">
         <v>3</v>
       </c>
-      <c r="O13" s="31">
-        <v>5</v>
-      </c>
-      <c r="P13" s="33">
-        <v>-2</v>
-      </c>
-      <c r="Q13" s="35">
-        <v>30</v>
-      </c>
-      <c r="R13" s="37">
-        <v>24</v>
-      </c>
-      <c r="S13" s="39">
-        <v>6</v>
-      </c>
-      <c r="T13" s="41">
-        <v>0</v>
-      </c>
-      <c r="U13" s="43">
-        <v>0</v>
-      </c>
-      <c r="V13" s="45">
-        <v>0</v>
-      </c>
-      <c r="W13" s="47">
-        <v>0</v>
-      </c>
       <c r="X13" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" s="51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z13" s="53">
-        <v>16</v>
+        <v>484</v>
       </c>
       <c r="AA13" s="55">
-        <v>17</v>
+        <v>499</v>
       </c>
       <c r="AB13" s="57">
-        <v>-1</v>
+        <v>-15</v>
       </c>
       <c r="AC13" s="59">
-        <v>65</v>
+        <v>1944</v>
       </c>
       <c r="AD13" s="61">
-        <v>42</v>
+        <v>1264</v>
       </c>
       <c r="AE13" s="63">
-        <v>22</v>
+        <v>681</v>
       </c>
       <c r="AF13" s="65">
         <v>0</v>
@@ -2774,16 +2774,16 @@
         <v>0</v>
       </c>
       <c r="AI13" s="71">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="AJ13" s="73">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="AK13" s="75">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL13" s="77">
-        <v>1059</v>
+        <v>31669</v>
       </c>
     </row>
     <row r="14">
@@ -2791,58 +2791,58 @@
         <v>26</v>
       </c>
       <c r="B14" s="5">
-        <v>658</v>
+        <v>24127</v>
       </c>
       <c r="C14" s="7">
-        <v>761</v>
+        <v>27816</v>
       </c>
       <c r="D14" s="9">
-        <v>-103</v>
+        <v>-3689</v>
       </c>
       <c r="E14" s="11">
-        <v>2164</v>
+        <v>80141</v>
       </c>
       <c r="F14" s="13">
-        <v>2167</v>
+        <v>81824</v>
       </c>
       <c r="G14" s="15">
-        <v>-3</v>
+        <v>-1683</v>
       </c>
       <c r="H14" s="17">
-        <v>445</v>
+        <v>17827</v>
       </c>
       <c r="I14" s="19">
-        <v>331</v>
+        <v>12197</v>
       </c>
       <c r="J14" s="21">
-        <v>114</v>
+        <v>5630</v>
       </c>
       <c r="K14" s="23">
-        <v>69</v>
+        <v>2420</v>
       </c>
       <c r="L14" s="25">
-        <v>201</v>
+        <v>7644</v>
       </c>
       <c r="M14" s="27">
-        <v>-132</v>
+        <v>-5224</v>
       </c>
       <c r="N14" s="29">
-        <v>6</v>
+        <v>223</v>
       </c>
       <c r="O14" s="31">
-        <v>8</v>
+        <v>266</v>
       </c>
       <c r="P14" s="33">
-        <v>-1</v>
+        <v>-43</v>
       </c>
       <c r="Q14" s="35">
-        <v>170</v>
+        <v>7211</v>
       </c>
       <c r="R14" s="37">
-        <v>27</v>
+        <v>986</v>
       </c>
       <c r="S14" s="39">
-        <v>143</v>
+        <v>6225</v>
       </c>
       <c r="T14" s="41">
         <v>0</v>
@@ -2857,28 +2857,28 @@
         <v>0</v>
       </c>
       <c r="X14" s="49">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="Y14" s="51">
-        <v>-2</v>
+        <v>-90</v>
       </c>
       <c r="Z14" s="53">
-        <v>27</v>
+        <v>946</v>
       </c>
       <c r="AA14" s="55">
-        <v>29</v>
+        <v>1048</v>
       </c>
       <c r="AB14" s="57">
-        <v>-3</v>
+        <v>-102</v>
       </c>
       <c r="AC14" s="59">
-        <v>172</v>
+        <v>7027</v>
       </c>
       <c r="AD14" s="61">
-        <v>62</v>
+        <v>2163</v>
       </c>
       <c r="AE14" s="63">
-        <v>110</v>
+        <v>4864</v>
       </c>
       <c r="AF14" s="65">
         <v>0</v>
@@ -2890,16 +2890,16 @@
         <v>0</v>
       </c>
       <c r="AI14" s="71">
-        <v>12</v>
+        <v>425</v>
       </c>
       <c r="AJ14" s="73">
-        <v>20</v>
+        <v>683</v>
       </c>
       <c r="AK14" s="75">
-        <v>-8</v>
+        <v>-258</v>
       </c>
       <c r="AL14" s="77">
-        <v>3278</v>
+        <v>122521</v>
       </c>
     </row>
     <row r="15">
@@ -2907,94 +2907,94 @@
         <v>27</v>
       </c>
       <c r="B15" s="5">
-        <v>731</v>
+        <v>27333</v>
       </c>
       <c r="C15" s="7">
-        <v>785</v>
+        <v>29377</v>
       </c>
       <c r="D15" s="9">
-        <v>-54</v>
+        <v>-2045</v>
       </c>
       <c r="E15" s="11">
-        <v>2584</v>
+        <v>97049</v>
       </c>
       <c r="F15" s="13">
-        <v>2461</v>
+        <v>92613</v>
       </c>
       <c r="G15" s="15">
-        <v>124</v>
+        <v>4436</v>
       </c>
       <c r="H15" s="17">
-        <v>206</v>
+        <v>7687</v>
       </c>
       <c r="I15" s="19">
-        <v>278</v>
+        <v>10161</v>
       </c>
       <c r="J15" s="21">
-        <v>-72</v>
+        <v>-2474</v>
       </c>
       <c r="K15" s="23">
+        <v>2189</v>
+      </c>
+      <c r="L15" s="25">
+        <v>3389</v>
+      </c>
+      <c r="M15" s="27">
+        <v>-1200</v>
+      </c>
+      <c r="N15" s="29">
+        <v>341</v>
+      </c>
+      <c r="O15" s="31">
+        <v>220</v>
+      </c>
+      <c r="P15" s="33">
+        <v>121</v>
+      </c>
+      <c r="Q15" s="35">
+        <v>1570</v>
+      </c>
+      <c r="R15" s="37">
+        <v>1671</v>
+      </c>
+      <c r="S15" s="39">
+        <v>-101</v>
+      </c>
+      <c r="T15" s="41">
+        <v>0</v>
+      </c>
+      <c r="U15" s="43">
+        <v>0</v>
+      </c>
+      <c r="V15" s="45">
+        <v>0</v>
+      </c>
+      <c r="W15" s="47">
+        <v>185</v>
+      </c>
+      <c r="X15" s="49">
+        <v>126</v>
+      </c>
+      <c r="Y15" s="51">
         <v>59</v>
       </c>
-      <c r="L15" s="25">
-        <v>93</v>
-      </c>
-      <c r="M15" s="27">
-        <v>-34</v>
-      </c>
-      <c r="N15" s="29">
-        <v>9</v>
-      </c>
-      <c r="O15" s="31">
-        <v>6</v>
-      </c>
-      <c r="P15" s="33">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="35">
-        <v>41</v>
-      </c>
-      <c r="R15" s="37">
-        <v>45</v>
-      </c>
-      <c r="S15" s="39">
-        <v>-4</v>
-      </c>
-      <c r="T15" s="41">
-        <v>0</v>
-      </c>
-      <c r="U15" s="43">
-        <v>0</v>
-      </c>
-      <c r="V15" s="45">
-        <v>0</v>
-      </c>
-      <c r="W15" s="47">
-        <v>5</v>
-      </c>
-      <c r="X15" s="49">
-        <v>3</v>
-      </c>
-      <c r="Y15" s="51">
-        <v>1</v>
-      </c>
       <c r="Z15" s="53">
-        <v>50</v>
+        <v>1823</v>
       </c>
       <c r="AA15" s="55">
-        <v>32</v>
+        <v>1123</v>
       </c>
       <c r="AB15" s="57">
-        <v>18</v>
+        <v>699</v>
       </c>
       <c r="AC15" s="59">
-        <v>43</v>
+        <v>1579</v>
       </c>
       <c r="AD15" s="61">
-        <v>99</v>
+        <v>3633</v>
       </c>
       <c r="AE15" s="63">
-        <v>-56</v>
+        <v>-2053</v>
       </c>
       <c r="AF15" s="65">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="AI15" s="71">
-        <v>15</v>
+        <v>577</v>
       </c>
       <c r="AJ15" s="73">
-        <v>13</v>
+        <v>494</v>
       </c>
       <c r="AK15" s="75">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="AL15" s="77">
-        <v>3536</v>
+        <v>132645</v>
       </c>
     </row>
     <row r="16">
@@ -3023,59 +3023,59 @@
         <v>28</v>
       </c>
       <c r="B16" s="5">
-        <v>393</v>
+        <v>12756</v>
       </c>
       <c r="C16" s="7">
-        <v>329</v>
+        <v>10601</v>
       </c>
       <c r="D16" s="9">
-        <v>65</v>
+        <v>2155</v>
       </c>
       <c r="E16" s="11">
-        <v>970</v>
+        <v>31301</v>
       </c>
       <c r="F16" s="13">
-        <v>1043</v>
+        <v>33955</v>
       </c>
       <c r="G16" s="15">
-        <v>-73</v>
+        <v>-2654</v>
       </c>
       <c r="H16" s="17">
-        <v>176</v>
+        <v>5801</v>
       </c>
       <c r="I16" s="19">
-        <v>167</v>
+        <v>5288</v>
       </c>
       <c r="J16" s="21">
-        <v>9</v>
+        <v>514</v>
       </c>
       <c r="K16" s="23">
-        <v>47</v>
+        <v>1495</v>
       </c>
       <c r="L16" s="25">
+        <v>1867</v>
+      </c>
+      <c r="M16" s="27">
+        <v>-371</v>
+      </c>
+      <c r="N16" s="29">
+        <v>146</v>
+      </c>
+      <c r="O16" s="31">
+        <v>156</v>
+      </c>
+      <c r="P16" s="33">
+        <v>-10</v>
+      </c>
+      <c r="Q16" s="35">
+        <v>1058</v>
+      </c>
+      <c r="R16" s="37">
+        <v>999</v>
+      </c>
+      <c r="S16" s="39">
         <v>59</v>
       </c>
-      <c r="M16" s="27">
-        <v>-12</v>
-      </c>
-      <c r="N16" s="29">
-        <v>4</v>
-      </c>
-      <c r="O16" s="31">
-        <v>5</v>
-      </c>
-      <c r="P16" s="33">
-        <v>-1</v>
-      </c>
-      <c r="Q16" s="35">
-        <v>31</v>
-      </c>
-      <c r="R16" s="37">
-        <v>32</v>
-      </c>
-      <c r="S16" s="39">
-        <v>0</v>
-      </c>
       <c r="T16" s="41">
         <v>0</v>
       </c>
@@ -3095,22 +3095,22 @@
         <v>0</v>
       </c>
       <c r="Z16" s="53">
-        <v>32</v>
+        <v>1030</v>
       </c>
       <c r="AA16" s="55">
-        <v>20</v>
+        <v>633</v>
       </c>
       <c r="AB16" s="57">
-        <v>12</v>
+        <v>396</v>
       </c>
       <c r="AC16" s="59">
-        <v>61</v>
+        <v>2073</v>
       </c>
       <c r="AD16" s="61">
-        <v>52</v>
+        <v>1633</v>
       </c>
       <c r="AE16" s="63">
-        <v>10</v>
+        <v>440</v>
       </c>
       <c r="AF16" s="65">
         <v>0</v>
@@ -3122,16 +3122,16 @@
         <v>0</v>
       </c>
       <c r="AI16" s="71">
-        <v>4</v>
+        <v>149</v>
       </c>
       <c r="AJ16" s="73">
-        <v>5</v>
+        <v>163</v>
       </c>
       <c r="AK16" s="75">
-        <v>-1</v>
+        <v>-14</v>
       </c>
       <c r="AL16" s="77">
-        <v>1544</v>
+        <v>50006</v>
       </c>
     </row>
     <row r="17">
@@ -3139,58 +3139,58 @@
         <v>29</v>
       </c>
       <c r="B17" s="5">
-        <v>598</v>
+        <v>21997</v>
       </c>
       <c r="C17" s="7">
-        <v>1163</v>
+        <v>43779</v>
       </c>
       <c r="D17" s="9">
-        <v>-565</v>
+        <v>-21783</v>
       </c>
       <c r="E17" s="11">
-        <v>1864</v>
+        <v>69200</v>
       </c>
       <c r="F17" s="13">
-        <v>1491</v>
+        <v>54894</v>
       </c>
       <c r="G17" s="15">
-        <v>372</v>
+        <v>14306</v>
       </c>
       <c r="H17" s="17">
-        <v>757</v>
+        <v>28782</v>
       </c>
       <c r="I17" s="19">
-        <v>560</v>
+        <v>21156</v>
       </c>
       <c r="J17" s="21">
-        <v>197</v>
+        <v>7626</v>
       </c>
       <c r="K17" s="23">
-        <v>85</v>
+        <v>3093</v>
       </c>
       <c r="L17" s="25">
-        <v>183</v>
+        <v>7059</v>
       </c>
       <c r="M17" s="27">
-        <v>-98</v>
+        <v>-3966</v>
       </c>
       <c r="N17" s="29">
-        <v>52</v>
+        <v>2030</v>
       </c>
       <c r="O17" s="31">
-        <v>28</v>
+        <v>1040</v>
       </c>
       <c r="P17" s="33">
-        <v>23</v>
+        <v>990</v>
       </c>
       <c r="Q17" s="35">
-        <v>269</v>
+        <v>10526</v>
       </c>
       <c r="R17" s="37">
-        <v>83</v>
+        <v>3134</v>
       </c>
       <c r="S17" s="39">
-        <v>186</v>
+        <v>7392</v>
       </c>
       <c r="T17" s="41">
         <v>0</v>
@@ -3202,31 +3202,31 @@
         <v>0</v>
       </c>
       <c r="W17" s="47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X17" s="49">
         <v>0</v>
       </c>
       <c r="Y17" s="51">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z17" s="53">
-        <v>282</v>
+        <v>10647</v>
       </c>
       <c r="AA17" s="55">
-        <v>34</v>
+        <v>1328</v>
       </c>
       <c r="AB17" s="57">
-        <v>248</v>
+        <v>9320</v>
       </c>
       <c r="AC17" s="59">
-        <v>69</v>
+        <v>2482</v>
       </c>
       <c r="AD17" s="61">
-        <v>232</v>
+        <v>8596</v>
       </c>
       <c r="AE17" s="63">
-        <v>-163</v>
+        <v>-6114</v>
       </c>
       <c r="AF17" s="65">
         <v>0</v>
@@ -3238,16 +3238,16 @@
         <v>0</v>
       </c>
       <c r="AI17" s="71">
-        <v>20</v>
+        <v>767</v>
       </c>
       <c r="AJ17" s="73">
-        <v>24</v>
+        <v>916</v>
       </c>
       <c r="AK17" s="75">
-        <v>-4</v>
+        <v>-150</v>
       </c>
       <c r="AL17" s="77">
-        <v>3239</v>
+        <v>120745</v>
       </c>
     </row>
     <row r="18">
@@ -3255,58 +3255,58 @@
         <v>30</v>
       </c>
       <c r="B18" s="5">
-        <v>1041</v>
+        <v>44055</v>
       </c>
       <c r="C18" s="7">
-        <v>698</v>
+        <v>29676</v>
       </c>
       <c r="D18" s="9">
-        <v>343</v>
+        <v>14379</v>
       </c>
       <c r="E18" s="11">
-        <v>1647</v>
+        <v>68963</v>
       </c>
       <c r="F18" s="13">
-        <v>1954</v>
+        <v>82104</v>
       </c>
       <c r="G18" s="15">
-        <v>-307</v>
+        <v>-13141</v>
       </c>
       <c r="H18" s="17">
-        <v>223</v>
+        <v>9410</v>
       </c>
       <c r="I18" s="19">
-        <v>255</v>
+        <v>10483</v>
       </c>
       <c r="J18" s="21">
-        <v>-32</v>
+        <v>-1073</v>
       </c>
       <c r="K18" s="23">
-        <v>39</v>
+        <v>1625</v>
       </c>
       <c r="L18" s="25">
-        <v>50</v>
+        <v>2053</v>
       </c>
       <c r="M18" s="27">
-        <v>-11</v>
+        <v>-428</v>
       </c>
       <c r="N18" s="29">
-        <v>6</v>
+        <v>273</v>
       </c>
       <c r="O18" s="31">
-        <v>15</v>
+        <v>597</v>
       </c>
       <c r="P18" s="33">
-        <v>-8</v>
+        <v>-324</v>
       </c>
       <c r="Q18" s="35">
-        <v>22</v>
+        <v>933</v>
       </c>
       <c r="R18" s="37">
-        <v>52</v>
+        <v>2169</v>
       </c>
       <c r="S18" s="39">
-        <v>-30</v>
+        <v>-1235</v>
       </c>
       <c r="T18" s="41">
         <v>0</v>
@@ -3321,28 +3321,28 @@
         <v>0</v>
       </c>
       <c r="X18" s="49">
-        <v>7</v>
+        <v>273</v>
       </c>
       <c r="Y18" s="51">
-        <v>-7</v>
+        <v>-273</v>
       </c>
       <c r="Z18" s="53">
-        <v>146</v>
+        <v>6170</v>
       </c>
       <c r="AA18" s="55">
-        <v>10</v>
+        <v>404</v>
       </c>
       <c r="AB18" s="57">
-        <v>136</v>
+        <v>5767</v>
       </c>
       <c r="AC18" s="59">
-        <v>10</v>
+        <v>408</v>
       </c>
       <c r="AD18" s="61">
-        <v>122</v>
+        <v>4988</v>
       </c>
       <c r="AE18" s="63">
-        <v>-113</v>
+        <v>-4580</v>
       </c>
       <c r="AF18" s="65">
         <v>0</v>
@@ -3354,16 +3354,16 @@
         <v>0</v>
       </c>
       <c r="AI18" s="71">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="AJ18" s="73">
-        <v>7</v>
+        <v>279</v>
       </c>
       <c r="AK18" s="75">
-        <v>-4</v>
+        <v>-165</v>
       </c>
       <c r="AL18" s="77">
-        <v>2913</v>
+        <v>122541</v>
       </c>
     </row>
     <row r="19">
@@ -3371,58 +3371,58 @@
         <v>31</v>
       </c>
       <c r="B19" s="5">
-        <v>459</v>
+        <v>19749</v>
       </c>
       <c r="C19" s="7">
-        <v>335</v>
+        <v>14544</v>
       </c>
       <c r="D19" s="9">
-        <v>124</v>
+        <v>5205</v>
       </c>
       <c r="E19" s="11">
-        <v>2466</v>
+        <v>107206</v>
       </c>
       <c r="F19" s="13">
-        <v>2472</v>
+        <v>107638</v>
       </c>
       <c r="G19" s="15">
-        <v>-6</v>
+        <v>-431</v>
       </c>
       <c r="H19" s="17">
-        <v>145</v>
+        <v>6242</v>
       </c>
       <c r="I19" s="19">
-        <v>258</v>
+        <v>10831</v>
       </c>
       <c r="J19" s="21">
-        <v>-114</v>
+        <v>-4588</v>
       </c>
       <c r="K19" s="23">
-        <v>61</v>
+        <v>2624</v>
       </c>
       <c r="L19" s="25">
-        <v>55</v>
+        <v>2344</v>
       </c>
       <c r="M19" s="27">
-        <v>6</v>
+        <v>280</v>
       </c>
       <c r="N19" s="29">
-        <v>10</v>
+        <v>453</v>
       </c>
       <c r="O19" s="31">
-        <v>5</v>
+        <v>193</v>
       </c>
       <c r="P19" s="33">
-        <v>6</v>
+        <v>259</v>
       </c>
       <c r="Q19" s="35">
-        <v>26</v>
+        <v>1093</v>
       </c>
       <c r="R19" s="37">
-        <v>45</v>
+        <v>1880</v>
       </c>
       <c r="S19" s="39">
-        <v>-19</v>
+        <v>-787</v>
       </c>
       <c r="T19" s="41">
         <v>0</v>
@@ -3437,28 +3437,28 @@
         <v>0</v>
       </c>
       <c r="X19" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y19" s="51">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z19" s="53">
-        <v>27</v>
+        <v>1156</v>
       </c>
       <c r="AA19" s="55">
-        <v>98</v>
+        <v>4005</v>
       </c>
       <c r="AB19" s="57">
-        <v>-72</v>
+        <v>-2849</v>
       </c>
       <c r="AC19" s="59">
-        <v>21</v>
+        <v>917</v>
       </c>
       <c r="AD19" s="61">
-        <v>56</v>
+        <v>2406</v>
       </c>
       <c r="AE19" s="63">
-        <v>-35</v>
+        <v>-1489</v>
       </c>
       <c r="AF19" s="65">
         <v>0</v>
@@ -3470,16 +3470,16 @@
         <v>0</v>
       </c>
       <c r="AI19" s="71">
-        <v>8</v>
+        <v>333</v>
       </c>
       <c r="AJ19" s="73">
-        <v>12</v>
+        <v>518</v>
       </c>
       <c r="AK19" s="75">
-        <v>-5</v>
+        <v>-185</v>
       </c>
       <c r="AL19" s="77">
-        <v>3077</v>
+        <v>133531</v>
       </c>
     </row>
     <row r="20">
@@ -3487,94 +3487,94 @@
         <v>32</v>
       </c>
       <c r="B20" s="5">
-        <v>1006</v>
+        <v>41081</v>
       </c>
       <c r="C20" s="7">
-        <v>1020</v>
+        <v>41069</v>
       </c>
       <c r="D20" s="9">
-        <v>-15</v>
+        <v>12</v>
       </c>
       <c r="E20" s="11">
-        <v>4380</v>
+        <v>174993</v>
       </c>
       <c r="F20" s="13">
-        <v>3510</v>
+        <v>142249</v>
       </c>
       <c r="G20" s="15">
-        <v>869</v>
+        <v>32744</v>
       </c>
       <c r="H20" s="17">
-        <v>393</v>
+        <v>15986</v>
       </c>
       <c r="I20" s="19">
-        <v>1222</v>
+        <v>47702</v>
       </c>
       <c r="J20" s="21">
-        <v>-829</v>
+        <v>-31716</v>
       </c>
       <c r="K20" s="23">
-        <v>47</v>
+        <v>1872</v>
       </c>
       <c r="L20" s="25">
-        <v>213</v>
+        <v>8374</v>
       </c>
       <c r="M20" s="27">
-        <v>-166</v>
+        <v>-6503</v>
       </c>
       <c r="N20" s="29">
-        <v>31</v>
+        <v>1234</v>
       </c>
       <c r="O20" s="31">
-        <v>57</v>
+        <v>2191</v>
       </c>
       <c r="P20" s="33">
-        <v>-26</v>
+        <v>-957</v>
       </c>
       <c r="Q20" s="35">
-        <v>81</v>
+        <v>3346</v>
       </c>
       <c r="R20" s="37">
-        <v>206</v>
+        <v>8049</v>
       </c>
       <c r="S20" s="39">
-        <v>-125</v>
+        <v>-4703</v>
       </c>
       <c r="T20" s="41">
         <v>0</v>
       </c>
       <c r="U20" s="43">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="V20" s="45">
-        <v>-2</v>
+        <v>-91</v>
       </c>
       <c r="W20" s="47">
         <v>0</v>
       </c>
       <c r="X20" s="49">
-        <v>18</v>
+        <v>692</v>
       </c>
       <c r="Y20" s="51">
-        <v>-18</v>
+        <v>-692</v>
       </c>
       <c r="Z20" s="53">
-        <v>208</v>
+        <v>8445</v>
       </c>
       <c r="AA20" s="55">
-        <v>136</v>
+        <v>5210</v>
       </c>
       <c r="AB20" s="57">
-        <v>72</v>
+        <v>3235</v>
       </c>
       <c r="AC20" s="59">
-        <v>27</v>
+        <v>1089</v>
       </c>
       <c r="AD20" s="61">
-        <v>591</v>
+        <v>23095</v>
       </c>
       <c r="AE20" s="63">
-        <v>-564</v>
+        <v>-22006</v>
       </c>
       <c r="AF20" s="65">
         <v>0</v>
@@ -3586,16 +3586,16 @@
         <v>0</v>
       </c>
       <c r="AI20" s="71">
-        <v>31</v>
+        <v>1249</v>
       </c>
       <c r="AJ20" s="73">
-        <v>57</v>
+        <v>2289</v>
       </c>
       <c r="AK20" s="75">
-        <v>-26</v>
+        <v>-1041</v>
       </c>
       <c r="AL20" s="77">
-        <v>5810</v>
+        <v>233309</v>
       </c>
     </row>
     <row r="21">
@@ -3603,58 +3603,58 @@
         <v>33</v>
       </c>
       <c r="B21" s="5">
-        <v>428</v>
+        <v>17987</v>
       </c>
       <c r="C21" s="7">
-        <v>659</v>
+        <v>27593</v>
       </c>
       <c r="D21" s="9">
-        <v>-230</v>
+        <v>-9606</v>
       </c>
       <c r="E21" s="11">
-        <v>1729</v>
+        <v>72739</v>
       </c>
       <c r="F21" s="13">
-        <v>1541</v>
+        <v>65013</v>
       </c>
       <c r="G21" s="15">
-        <v>188</v>
+        <v>7726</v>
       </c>
       <c r="H21" s="17">
-        <v>113</v>
+        <v>4806</v>
       </c>
       <c r="I21" s="19">
-        <v>77</v>
+        <v>3194</v>
       </c>
       <c r="J21" s="21">
-        <v>36</v>
+        <v>1612</v>
       </c>
       <c r="K21" s="23">
-        <v>6</v>
+        <v>249</v>
       </c>
       <c r="L21" s="25">
-        <v>10</v>
+        <v>406</v>
       </c>
       <c r="M21" s="27">
-        <v>-4</v>
+        <v>-157</v>
       </c>
       <c r="N21" s="29">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="O21" s="31">
-        <v>4</v>
+        <v>178</v>
       </c>
       <c r="P21" s="33">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="Q21" s="35">
-        <v>52</v>
+        <v>2244</v>
       </c>
       <c r="R21" s="37">
-        <v>12</v>
+        <v>527</v>
       </c>
       <c r="S21" s="39">
-        <v>40</v>
+        <v>1716</v>
       </c>
       <c r="T21" s="41">
         <v>0</v>
@@ -3675,22 +3675,22 @@
         <v>0</v>
       </c>
       <c r="Z21" s="53">
-        <v>41</v>
+        <v>1738</v>
       </c>
       <c r="AA21" s="55">
-        <v>25</v>
+        <v>1005</v>
       </c>
       <c r="AB21" s="57">
-        <v>17</v>
+        <v>733</v>
       </c>
       <c r="AC21" s="59">
-        <v>9</v>
+        <v>402</v>
       </c>
       <c r="AD21" s="61">
-        <v>26</v>
+        <v>1078</v>
       </c>
       <c r="AE21" s="63">
-        <v>-16</v>
+        <v>-676</v>
       </c>
       <c r="AF21" s="65">
         <v>0</v>
@@ -3702,16 +3702,16 @@
         <v>0</v>
       </c>
       <c r="AI21" s="71">
-        <v>9</v>
+        <v>391</v>
       </c>
       <c r="AJ21" s="73">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="AK21" s="75">
-        <v>6</v>
+        <v>268</v>
       </c>
       <c r="AL21" s="77">
-        <v>2279</v>
+        <v>95923</v>
       </c>
     </row>
     <row r="22">
@@ -3719,58 +3719,58 @@
         <v>34</v>
       </c>
       <c r="B22" s="5">
-        <v>662</v>
+        <v>31040</v>
       </c>
       <c r="C22" s="7">
-        <v>943</v>
+        <v>43402</v>
       </c>
       <c r="D22" s="9">
-        <v>-281</v>
+        <v>-12362</v>
       </c>
       <c r="E22" s="11">
-        <v>2346</v>
+        <v>112359</v>
       </c>
       <c r="F22" s="13">
-        <v>2119</v>
+        <v>102781</v>
       </c>
       <c r="G22" s="15">
-        <v>227</v>
+        <v>9578</v>
       </c>
       <c r="H22" s="17">
-        <v>287</v>
+        <v>13962</v>
       </c>
       <c r="I22" s="19">
-        <v>228</v>
+        <v>10829</v>
       </c>
       <c r="J22" s="21">
-        <v>60</v>
+        <v>3132</v>
       </c>
       <c r="K22" s="23">
-        <v>8</v>
+        <v>328</v>
       </c>
       <c r="L22" s="25">
-        <v>24</v>
+        <v>1083</v>
       </c>
       <c r="M22" s="27">
-        <v>-16</v>
+        <v>-755</v>
       </c>
       <c r="N22" s="29">
-        <v>12</v>
+        <v>549</v>
       </c>
       <c r="O22" s="31">
-        <v>19</v>
+        <v>765</v>
       </c>
       <c r="P22" s="33">
-        <v>-7</v>
+        <v>-216</v>
       </c>
       <c r="Q22" s="35">
-        <v>7</v>
+        <v>297</v>
       </c>
       <c r="R22" s="37">
-        <v>91</v>
+        <v>4311</v>
       </c>
       <c r="S22" s="39">
-        <v>-84</v>
+        <v>-4014</v>
       </c>
       <c r="T22" s="41">
         <v>0</v>
@@ -3785,28 +3785,28 @@
         <v>0</v>
       </c>
       <c r="X22" s="49">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="Y22" s="51">
-        <v>-1</v>
+        <v>-59</v>
       </c>
       <c r="Z22" s="53">
-        <v>254</v>
+        <v>12493</v>
       </c>
       <c r="AA22" s="55">
-        <v>46</v>
+        <v>2126</v>
       </c>
       <c r="AB22" s="57">
-        <v>208</v>
+        <v>10367</v>
       </c>
       <c r="AC22" s="59">
-        <v>7</v>
+        <v>295</v>
       </c>
       <c r="AD22" s="61">
-        <v>47</v>
+        <v>2486</v>
       </c>
       <c r="AE22" s="63">
-        <v>-41</v>
+        <v>-2191</v>
       </c>
       <c r="AF22" s="65">
         <v>0</v>
@@ -3818,16 +3818,16 @@
         <v>0</v>
       </c>
       <c r="AI22" s="71">
-        <v>10</v>
+        <v>496</v>
       </c>
       <c r="AJ22" s="73">
-        <v>16</v>
+        <v>845</v>
       </c>
       <c r="AK22" s="75">
-        <v>-6</v>
+        <v>-348</v>
       </c>
       <c r="AL22" s="77">
-        <v>3306</v>
+        <v>157857</v>
       </c>
     </row>
     <row r="23">
@@ -3835,94 +3835,94 @@
         <v>35</v>
       </c>
       <c r="B23" s="5">
-        <v>1178</v>
+        <v>66029</v>
       </c>
       <c r="C23" s="7">
-        <v>1556</v>
+        <v>85415</v>
       </c>
       <c r="D23" s="9">
-        <v>-377</v>
+        <v>-19386</v>
       </c>
       <c r="E23" s="11">
-        <v>7032</v>
+        <v>385954</v>
       </c>
       <c r="F23" s="13">
-        <v>5562</v>
+        <v>310893</v>
       </c>
       <c r="G23" s="15">
-        <v>1470</v>
+        <v>75060</v>
       </c>
       <c r="H23" s="17">
-        <v>913</v>
+        <v>52790</v>
       </c>
       <c r="I23" s="19">
-        <v>1942</v>
+        <v>104967</v>
       </c>
       <c r="J23" s="21">
-        <v>-1028</v>
+        <v>-52177</v>
       </c>
       <c r="K23" s="23">
-        <v>47</v>
+        <v>2580</v>
       </c>
       <c r="L23" s="25">
-        <v>285</v>
+        <v>15719</v>
       </c>
       <c r="M23" s="27">
-        <v>-238</v>
+        <v>-13138</v>
       </c>
       <c r="N23" s="29">
-        <v>24</v>
+        <v>1337</v>
       </c>
       <c r="O23" s="31">
-        <v>41</v>
+        <v>2198</v>
       </c>
       <c r="P23" s="33">
-        <v>-17</v>
+        <v>-861</v>
       </c>
       <c r="Q23" s="35">
-        <v>199</v>
+        <v>11606</v>
       </c>
       <c r="R23" s="37">
-        <v>474</v>
+        <v>25722</v>
       </c>
       <c r="S23" s="39">
-        <v>-275</v>
+        <v>-14116</v>
       </c>
       <c r="T23" s="41">
         <v>0</v>
       </c>
       <c r="U23" s="43">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="V23" s="45">
-        <v>-1</v>
+        <v>-60</v>
       </c>
       <c r="W23" s="47">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="X23" s="49">
-        <v>39</v>
+        <v>2179</v>
       </c>
       <c r="Y23" s="51">
-        <v>-38</v>
+        <v>-2090</v>
       </c>
       <c r="Z23" s="53">
-        <v>618</v>
+        <v>35873</v>
       </c>
       <c r="AA23" s="55">
-        <v>259</v>
+        <v>13330</v>
       </c>
       <c r="AB23" s="57">
-        <v>359</v>
+        <v>22543</v>
       </c>
       <c r="AC23" s="59">
-        <v>24</v>
+        <v>1305</v>
       </c>
       <c r="AD23" s="61">
-        <v>843</v>
+        <v>45761</v>
       </c>
       <c r="AE23" s="63">
-        <v>-819</v>
+        <v>-44456</v>
       </c>
       <c r="AF23" s="65">
         <v>0</v>
@@ -3934,16 +3934,16 @@
         <v>0</v>
       </c>
       <c r="AI23" s="71">
-        <v>62</v>
+        <v>3350</v>
       </c>
       <c r="AJ23" s="73">
-        <v>127</v>
+        <v>6848</v>
       </c>
       <c r="AK23" s="75">
-        <v>-65</v>
+        <v>-3498</v>
       </c>
       <c r="AL23" s="77">
-        <v>9186</v>
+        <v>508123</v>
       </c>
     </row>
     <row r="24">
@@ -3951,58 +3951,58 @@
         <v>36</v>
       </c>
       <c r="B24" s="5">
-        <v>252</v>
+        <v>16742</v>
       </c>
       <c r="C24" s="7">
-        <v>322</v>
+        <v>20828</v>
       </c>
       <c r="D24" s="9">
-        <v>-70</v>
+        <v>-4086</v>
       </c>
       <c r="E24" s="11">
-        <v>2373</v>
+        <v>157400</v>
       </c>
       <c r="F24" s="13">
-        <v>2210</v>
+        <v>147208</v>
       </c>
       <c r="G24" s="15">
-        <v>163</v>
+        <v>10193</v>
       </c>
       <c r="H24" s="17">
-        <v>36</v>
+        <v>2386</v>
       </c>
       <c r="I24" s="19">
-        <v>121</v>
+        <v>7943</v>
       </c>
       <c r="J24" s="21">
-        <v>-85</v>
+        <v>-5557</v>
       </c>
       <c r="K24" s="23">
-        <v>8</v>
+        <v>485</v>
       </c>
       <c r="L24" s="25">
-        <v>7</v>
+        <v>486</v>
       </c>
       <c r="M24" s="27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N24" s="29">
-        <v>5</v>
+        <v>340</v>
       </c>
       <c r="O24" s="31">
-        <v>7</v>
+        <v>506</v>
       </c>
       <c r="P24" s="33">
-        <v>-2</v>
+        <v>-166</v>
       </c>
       <c r="Q24" s="35">
-        <v>15</v>
+        <v>1003</v>
       </c>
       <c r="R24" s="37">
-        <v>16</v>
+        <v>1113</v>
       </c>
       <c r="S24" s="39">
-        <v>-1</v>
+        <v>-110</v>
       </c>
       <c r="T24" s="41">
         <v>0</v>
@@ -4023,22 +4023,22 @@
         <v>0</v>
       </c>
       <c r="Z24" s="53">
-        <v>6</v>
+        <v>383</v>
       </c>
       <c r="AA24" s="55">
-        <v>41</v>
+        <v>2736</v>
       </c>
       <c r="AB24" s="57">
-        <v>-35</v>
+        <v>-2353</v>
       </c>
       <c r="AC24" s="59">
-        <v>3</v>
+        <v>175</v>
       </c>
       <c r="AD24" s="61">
-        <v>48</v>
+        <v>3102</v>
       </c>
       <c r="AE24" s="63">
-        <v>-46</v>
+        <v>-2927</v>
       </c>
       <c r="AF24" s="65">
         <v>0</v>
@@ -4050,16 +4050,16 @@
         <v>0</v>
       </c>
       <c r="AI24" s="71">
-        <v>14</v>
+        <v>957</v>
       </c>
       <c r="AJ24" s="73">
-        <v>23</v>
+        <v>1506</v>
       </c>
       <c r="AK24" s="75">
-        <v>-8</v>
+        <v>-549</v>
       </c>
       <c r="AL24" s="77">
-        <v>2675</v>
+        <v>177485</v>
       </c>
     </row>
     <row r="25">
@@ -4067,94 +4067,94 @@
         <v>37</v>
       </c>
       <c r="B25" s="5">
-        <v>697</v>
+        <v>47981</v>
       </c>
       <c r="C25" s="7">
-        <v>681</v>
+        <v>46618</v>
       </c>
       <c r="D25" s="9">
-        <v>16</v>
+        <v>1363</v>
       </c>
       <c r="E25" s="11">
-        <v>6476</v>
+        <v>454663</v>
       </c>
       <c r="F25" s="13">
-        <v>6140</v>
+        <v>432054</v>
       </c>
       <c r="G25" s="15">
-        <v>336</v>
+        <v>22610</v>
       </c>
       <c r="H25" s="17">
-        <v>157</v>
+        <v>11063</v>
       </c>
       <c r="I25" s="19">
-        <v>486</v>
+        <v>33344</v>
       </c>
       <c r="J25" s="21">
-        <v>-329</v>
+        <v>-22282</v>
       </c>
       <c r="K25" s="23">
-        <v>14</v>
+        <v>933</v>
       </c>
       <c r="L25" s="25">
-        <v>122</v>
+        <v>8331</v>
       </c>
       <c r="M25" s="27">
-        <v>-108</v>
+        <v>-7398</v>
       </c>
       <c r="N25" s="29">
-        <v>10</v>
+        <v>703</v>
       </c>
       <c r="O25" s="31">
-        <v>28</v>
+        <v>1842</v>
       </c>
       <c r="P25" s="33">
-        <v>-18</v>
+        <v>-1140</v>
       </c>
       <c r="Q25" s="35">
-        <v>75</v>
+        <v>5435</v>
       </c>
       <c r="R25" s="37">
-        <v>74</v>
+        <v>5071</v>
       </c>
       <c r="S25" s="39">
-        <v>1</v>
+        <v>364</v>
       </c>
       <c r="T25" s="41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U25" s="43">
         <v>0</v>
       </c>
       <c r="V25" s="45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W25" s="47">
         <v>0</v>
       </c>
       <c r="X25" s="49">
-        <v>13</v>
+        <v>870</v>
       </c>
       <c r="Y25" s="51">
-        <v>-13</v>
+        <v>-870</v>
       </c>
       <c r="Z25" s="53">
-        <v>34</v>
+        <v>2335</v>
       </c>
       <c r="AA25" s="55">
-        <v>16</v>
+        <v>1038</v>
       </c>
       <c r="AB25" s="57">
-        <v>18</v>
+        <v>1297</v>
       </c>
       <c r="AC25" s="59">
-        <v>24</v>
+        <v>1655</v>
       </c>
       <c r="AD25" s="61">
-        <v>233</v>
+        <v>16192</v>
       </c>
       <c r="AE25" s="63">
-        <v>-209</v>
+        <v>-14537</v>
       </c>
       <c r="AF25" s="65">
         <v>0</v>
@@ -4166,16 +4166,16 @@
         <v>0</v>
       </c>
       <c r="AI25" s="71">
-        <v>19</v>
+        <v>1314</v>
       </c>
       <c r="AJ25" s="73">
-        <v>43</v>
+        <v>3005</v>
       </c>
       <c r="AK25" s="75">
-        <v>-23</v>
+        <v>-1691</v>
       </c>
       <c r="AL25" s="77">
-        <v>7349</v>
+        <v>515021</v>
       </c>
     </row>
     <row r="26">
@@ -4183,94 +4183,94 @@
         <v>38</v>
       </c>
       <c r="B26" s="6">
-        <v>401</v>
+        <v>33890</v>
       </c>
       <c r="C26" s="8">
-        <v>1469</v>
+        <v>124224</v>
       </c>
       <c r="D26" s="10">
-        <v>-1068</v>
+        <v>-90334</v>
       </c>
       <c r="E26" s="12">
-        <v>19059</v>
+        <v>1652639</v>
       </c>
       <c r="F26" s="14">
-        <v>18058</v>
+        <v>1568077</v>
       </c>
       <c r="G26" s="16">
-        <v>1001</v>
+        <v>84562</v>
       </c>
       <c r="H26" s="18">
-        <v>704</v>
+        <v>62075</v>
       </c>
       <c r="I26" s="20">
-        <v>596</v>
+        <v>52299</v>
       </c>
       <c r="J26" s="22">
-        <v>107</v>
+        <v>9776</v>
       </c>
       <c r="K26" s="24">
-        <v>42</v>
+        <v>3543</v>
       </c>
       <c r="L26" s="26">
-        <v>184</v>
+        <v>16018</v>
       </c>
       <c r="M26" s="28">
-        <v>-141</v>
+        <v>-12474</v>
       </c>
       <c r="N26" s="30">
-        <v>28</v>
+        <v>2435</v>
       </c>
       <c r="O26" s="32">
-        <v>24</v>
+        <v>2043</v>
       </c>
       <c r="P26" s="34">
-        <v>4</v>
+        <v>392</v>
       </c>
       <c r="Q26" s="36">
-        <v>122</v>
+        <v>10446</v>
       </c>
       <c r="R26" s="38">
-        <v>133</v>
+        <v>11825</v>
       </c>
       <c r="S26" s="40">
-        <v>-11</v>
+        <v>-1380</v>
       </c>
       <c r="T26" s="42">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="U26" s="44">
-        <v>6</v>
+        <v>502</v>
       </c>
       <c r="V26" s="46">
-        <v>-5</v>
+        <v>-421</v>
       </c>
       <c r="W26" s="48">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="X26" s="50">
-        <v>38</v>
+        <v>3378</v>
       </c>
       <c r="Y26" s="52">
-        <v>-37</v>
+        <v>-3324</v>
       </c>
       <c r="Z26" s="54">
-        <v>387</v>
+        <v>34711</v>
       </c>
       <c r="AA26" s="56">
-        <v>18</v>
+        <v>1542</v>
       </c>
       <c r="AB26" s="58">
-        <v>369</v>
+        <v>33169</v>
       </c>
       <c r="AC26" s="60">
-        <v>122</v>
+        <v>10806</v>
       </c>
       <c r="AD26" s="62">
-        <v>194</v>
+        <v>16992</v>
       </c>
       <c r="AE26" s="64">
-        <v>-72</v>
+        <v>-6186</v>
       </c>
       <c r="AF26" s="66">
         <v>0</v>
@@ -4282,16 +4282,16 @@
         <v>0</v>
       </c>
       <c r="AI26" s="72">
-        <v>89</v>
+        <v>7227</v>
       </c>
       <c r="AJ26" s="74">
-        <v>129</v>
+        <v>11232</v>
       </c>
       <c r="AK26" s="76">
-        <v>-40</v>
+        <v>-4004</v>
       </c>
       <c r="AL26" s="78">
-        <v>20252</v>
+        <v>1755831</v>
       </c>
     </row>
   </sheetData>
